--- a/artfynd/A 2931-2026 artfynd.xlsx
+++ b/artfynd/A 2931-2026 artfynd.xlsx
@@ -794,7 +794,7 @@
         <v>130794301</v>
       </c>
       <c r="B3" t="n">
-        <v>58560</v>
+        <v>58564</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>130794299</v>
       </c>
       <c r="B4" t="n">
-        <v>58037</v>
+        <v>58041</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>130794295</v>
       </c>
       <c r="B5" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
